--- a/biology/Virologie/Plaque_virale/Plaque_virale.xlsx
+++ b/biology/Virologie/Plaque_virale/Plaque_virale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une plaque virale (plage virale ou bien plage de lyse) est une « zone » différentiée apparaissant au sein d'une culture virale, elle-même faite sur une culture de cellules-cibles  (par exemple des virus bactériophages cultivés sur une surface de cultures d'une bactérie faite sur un milieu nutritif, gélose en général... ; si l'on introduit un virus bactériophage dans ce milieu, il va se faire répliquer au sein des bactéries, souvent en les tuant, ce qui lui permet de se propager.
 Cette propagation génère des zones de destruction cellulaire dites « plaques ». 
@@ -513,10 +525,12 @@
           <t>Technique de comptage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Compter le nombre de ces plaques est l'une des méthodes de quantification virale. 
-Elles peuvent être détectées visuellement (parfois à l’œil nu, mais plus souvent au microscope) ou à l'aide de compteurs de colonies, de la même manière qu'on compte les colonies bactériennes sont comptées. Des techniques de coloration (ex rouge neutre pour les eucaryotes[1] ou giemsa pour les bactéries[2]) peuvent aussi être utilisées, de même que l'immunofluorescence.
+Elles peuvent être détectées visuellement (parfois à l’œil nu, mais plus souvent au microscope) ou à l'aide de compteurs de colonies, de la même manière qu'on compte les colonies bactériennes sont comptées. Des techniques de coloration (ex rouge neutre pour les eucaryotes ou giemsa pour les bactéries) peuvent aussi être utilisées, de même que l'immunofluorescence.
 Des systèmes informatiques de comptage ont été conçus pour analyser des échantillons par lots.
 L'apparence de la plaque dépend bien entendu de la souche hôte, du virus mais aussi des conditions de culture. 
 Les souches virales hautement virulentes ou lytiques donnent des plaques claires.
@@ -549,10 +563,12 @@
           <t>Trous « spontanés » (non-induits par des virus)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En culture cellulaire, la formation spontanée de trous non-induits par des virus, atteignant parfois plusieurs millimètres et alors bien visibles à l'œil nu,  est dite opiplasie, du grec; opi = trou; plasi = formation (ex : LLC-PK1, ou le modèle de culture de cellules épithéliales gingivales humaines, Gie-3B11).   
-Ces trous "spontanés" peuvent être induits et/ou amplifiés par des cytokines pro-inflammatoires telles que le facteur Tumor Necrosis Factor-alpha[3].
+Ces trous "spontanés" peuvent être induits et/ou amplifiés par des cytokines pro-inflammatoires telles que le facteur Tumor Necrosis Factor-alpha.
 </t>
         </is>
       </c>
